--- a/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_05_beg.xlsx
+++ b/story/Activity Story 活动剧情/act16d5 Who is Real 画中人 画中人/level_act16d5_05_beg.xlsx
@@ -1120,7 +1120,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Benefactors! My benefactors! You're alright, aren't you?
+    <t xml:space="preserve">[name="Mr. Nothing"]Benefactors! My benefactors! You're alright, aren't you?
 </t>
   </si>
   <si>
@@ -1140,7 +1140,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Benefactor, what of those Ink Spirits? Oho, I see! Surely, with your invincible might, you drove them all away!
+    <t xml:space="preserve">[name="Mr. Nothing"]Benefactor, what of those Ink Spirits? Oho, I see! Surely, with your invincible might, you drove them all away!
 </t>
   </si>
   <si>
@@ -1152,7 +1152,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Ohh, ohh, benefactor, how could you doubt me so... I've waded through dangers extreme without shedding a tear, and now I am somewhat sad...!
+    <t xml:space="preserve">[name="Mr. Nothing"]Ohh, ohh, benefactor, how could you doubt me so... I've waded through dangers extreme without shedding a tear, and now I am somewhat sad...!
 </t>
   </si>
   <si>
@@ -1164,7 +1164,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]How insightful, benefactor! Plain folk like me could only reckon it bitter. We'd never make sense of the taste.
+    <t xml:space="preserve">[name="Mr. Nothing"]How insightful, benefactor! Plain folk like me could only reckon it bitter. We'd never make sense of the taste.
 </t>
   </si>
   <si>
@@ -1236,7 +1236,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Ho-hohh!? What's happening? Why is everyone standing up?
+    <t xml:space="preserve">[name="Mr. Nothing"]Ho-hohh!? What's happening? Why is everyone standing up?
 </t>
   </si>
   <si>
@@ -1300,7 +1300,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Mr.Nothing"]Benefactors, why do I sense a great commotion in the village that way?
+    <t xml:space="preserve">[name="Mr. Nothing"]Benefactors, why do I sense a great commotion in the village that way?
 </t>
   </si>
   <si>
@@ -1600,7 +1600,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="라이"]우아~ 홍차나 커피가 익숙하지만, 가끔 염국의 일품 차를 맛보는 것도 느낌이 색다르네~
+    <t xml:space="preserve">[name="라이"]그냥 평범한 찻잎입니다. 마을 시장에 파는 찻잎이 이것뿐이라서요. 혹시 입맛에 안 맞으셔도 이해해 주세요.
 </t>
   </si>
   <si>
